--- a/prompt_engineering/experiments/metadata_llama32_3B_gpto3.xlsx
+++ b/prompt_engineering/experiments/metadata_llama32_3B_gpto3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>% de cellules</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Méthode</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>% de cellules tumorales</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,6 +516,8 @@
           <t>20.0</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,7 +542,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Adénocarcinome</t>
+          <t>Adénocarcinome TTF1+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -540,9 +552,15 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0</t>
-        </is>
-      </c>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Recherche par « Next Generation Sequencing »</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -580,6 +598,8 @@
           <t>20.0</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -617,6 +637,8 @@
           <t>30.0</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -626,12 +648,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24EC09559</t>
+          <t>24EC09559 frottis 1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CLP</t>
+          <t>NRAS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -654,6 +676,8 @@
           <t>70.0</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -663,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24CU062291-frottis2</t>
+          <t>24CU062291</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,7 +697,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CurePath</t>
+          <t>Centre Hospitalier de Mouscron</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -691,31 +715,33 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24EM04347</t>
+          <t>24EM04107</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23CU032757-1.02</t>
+          <t>24CU062294-1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>BRAF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Centre Hospitalier de Mouscron</t>
+          <t>CurePath</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>carcinome urothélial invasif</t>
+          <t>PF1 oncocytaire</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -728,16 +754,18 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24EM03451</t>
+          <t>24EM04337</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24BB11466</t>
+          <t>2431646-1.1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,7 +780,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tumeur de la granulosa</t>
+          <t>masse gastrique</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -762,34 +790,36 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>30.0</t>
-        </is>
-      </c>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24EM03460</t>
+          <t>24EM04347</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>24MH9721 BN</t>
+          <t>23CU032757-1.02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CLP</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Centre Hospitalier de Mouscron</t>
+          <t>CurePath</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Adénocarcinome lieberkühnien</t>
+          <t>carcinome urothélial invasif</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -802,21 +832,23 @@
           <t>50.0</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24EM03308</t>
+          <t>24EM03451</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>24218507-1.1</t>
+          <t>24BB11466 07</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FOXL2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -826,7 +858,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Adénocarcinome pulmonaire</t>
+          <t>Tumeur de la granulosa</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -836,46 +868,132 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>24EM03460</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>24MH9721 BN</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Centre Hospitalier de Mouscron</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Adénocarcinome lieberkühnien</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>24EM03308</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>24218507-1.1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Centre Hospitalier de Mouscron</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adénocarcinome pulmonaire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>24EM03352</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>24MH9794</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Centre Hospitalier de Mouscron</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Adénocarcinome lieberkühnien</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Optimale</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Optimale</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Recherche par « Next Generation Sequencing »</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
